--- a/PayrollProject/templates/CourtOrderDEASocialSecurityInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderDEASocialSecurityInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\ProvarAz\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C19577-C19D-454E-9FFF-7754D2C43CD9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817EE5CB-8C21-4B92-8A88-6EAC0D0BA770}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>EmpName</t>
   </si>
@@ -61,9 +61,6 @@
     <t>12000</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 118</t>
   </si>
   <si>
@@ -73,13 +70,22 @@
     <t>SocialSecurityDebt_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH DEA Social Security</t>
-  </si>
-  <si>
-    <t>November-2018</t>
-  </si>
-  <si>
-    <t>December-2018</t>
+    <t>DO NOT DEASS OCT</t>
+  </si>
+  <si>
+    <t>DO NOT DEASS NOV</t>
+  </si>
+  <si>
+    <t>DO NOT DEASS DEC</t>
+  </si>
+  <si>
+    <t>December-2019</t>
+  </si>
+  <si>
+    <t>November-2019</t>
+  </si>
+  <si>
+    <t>October-2019</t>
   </si>
 </sst>
 </file>
@@ -486,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +532,10 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -538,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +564,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +603,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -609,19 +615,16 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{4BFF4037-1846-45D4-AFE0-2AEE2B86D736}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB080A-92DF-4846-AF59-D028CA8F2A66}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,10 +673,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -681,21 +684,18 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" tooltip="DO NOT TOUCH AUTMN PAEOMaintenance" display="http://xcdautomationlex--payrolfull.lightning.force.com/lightning/r/sObject/00O1q000000JibCEAS/view?queryScope=userFolders" xr:uid="{1813FA0D-B163-46C2-A60C-45FD000A9749}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>